--- a/9998.팀프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서.xlsx
+++ b/9998.팀프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34D0C4A02F7E0F63/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9998.팀프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8B19AA-9CCC-49A4-A75D-0FEADDD30A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
     <sheet name="상세 진행내용" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,99 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네비게이션 바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 햄버거바/Shop/로고/장바구니 순으로 배치
-2. 스크롤시 배경 색상에 따라 총 3가지 스타일로 반응
-* 원본 페이지보다 네비게이션 바의 요소들의 크기를 키울 계획</t>
-  </si>
-  <si>
-    <t>우측 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제품 이미지 페이드 인-아웃-아웃 전환
-2. 제품명 클릭시 제품상세페이지 이동</t>
-  </si>
-  <si>
-    <t>햄버거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 클릭시 아래쪽 방향으로 노출
-2. 네비게이션 바깥 배경 투명도 50%
-3. 클릭 및 클릭 해제시 버튼 전환 애니메이션
-4. 오버시 색상 전환효과</t>
-  </si>
-  <si>
-    <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 서브페이지-Shop으로 이동
-2. 오버시 색상 전환효과</t>
-  </si>
-  <si>
-    <t>로고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 클릭시 메인페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출
-2. Close 닫기 버튼
-3. + , - 기호 클릭시 상품 개수 수정
-4. 장바구니 토탈 가격 안내
-5. Proceed to checkout 버튼 클릭시 구매페이지 이동
-6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동
-7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동
-8. 제품 이미지 클릭시 제품 상세페이지로 이동
-9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 오버시 색상 전환효과
-2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공통 하단영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Lookbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Shop-제품상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Shop-최종구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Contact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,18 +407,133 @@
     <t>1. 서브메뉴 밑줄 애니메이션 피드백 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>서브페이지 - Neptune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Saturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Uranus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Jupiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Mars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Venus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Mercury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행성 회전 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약정보소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명명 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명체 존재 가능성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궤도와 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. position: fixed
+2. 스크롤 위치값에 따라 좌,우 위치 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행성 3D 모델링 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. NASA 이미지 발췌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음악 On/Off 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 이동 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mercury 와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Default 값은 On
+2. 클릭시 배경음악 On/Off 조절 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 해당 페이지 상단으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 우주복입은 사람이 커서를 따라다니는 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Grid를 이용한 갤러리
+2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="General\%"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1271,15 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,14 +1289,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
@@ -1578,12 +1607,14 @@
     <col min="5" max="5" width="20.875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="3.625" customWidth="1"/>
+    <col min="8" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="3.625" customWidth="1"/>
     <col min="27" max="27" width="3.625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="2:27" ht="54.75" customHeight="1">
+    <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1624,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:27" ht="26.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1633,7 @@
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>3</v>
@@ -1611,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="42">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
@@ -1653,7 +1684,7 @@
       <c r="Z4" s="43"/>
       <c r="AA4" s="43"/>
     </row>
-    <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="55"/>
       <c r="C5" s="52"/>
       <c r="D5" s="58"/>
@@ -1662,86 +1693,86 @@
       <c r="G5" s="48"/>
       <c r="H5" s="19">
         <f>H4</f>
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="I5" s="19">
         <f>H5+1</f>
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="J5" s="19">
         <f>I5+3</f>
-        <v>45670</v>
+        <v>45674</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" ref="K5:Z6" si="0">J5+1</f>
-        <v>45671</v>
+        <v>45675</v>
       </c>
       <c r="L5" s="19">
         <f t="shared" si="0"/>
-        <v>45672</v>
+        <v>45676</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" si="0"/>
-        <v>45673</v>
+        <v>45677</v>
       </c>
       <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>45674</v>
+        <v>45678</v>
       </c>
       <c r="O5" s="19">
         <f>N5+3</f>
-        <v>45677</v>
+        <v>45681</v>
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>45678</v>
+        <v>45682</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="0"/>
-        <v>45679</v>
+        <v>45683</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="0"/>
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="0"/>
-        <v>45681</v>
+        <v>45685</v>
       </c>
       <c r="T5" s="19">
         <f>S5+3</f>
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="U5" s="19">
         <f>T5+4</f>
-        <v>45688</v>
+        <v>45692</v>
       </c>
       <c r="V5" s="19">
         <f>U5+3</f>
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="W5" s="19">
         <f t="shared" si="0"/>
-        <v>45692</v>
+        <v>45696</v>
       </c>
       <c r="X5" s="19">
         <f t="shared" si="0"/>
-        <v>45693</v>
+        <v>45697</v>
       </c>
       <c r="Y5" s="19">
         <f>X5+1</f>
-        <v>45694</v>
+        <v>45698</v>
       </c>
       <c r="Z5" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45699</v>
       </c>
       <c r="AA5" s="30">
         <f>Z5+3</f>
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="56"/>
       <c r="C6" s="53"/>
       <c r="D6" s="59"/>
@@ -1750,99 +1781,99 @@
       <c r="G6" s="49"/>
       <c r="H6" s="20">
         <f>H5</f>
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="I6" s="20">
         <f>H6+1</f>
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="J6" s="20">
         <f>I6+3</f>
-        <v>45670</v>
+        <v>45674</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" si="0"/>
-        <v>45671</v>
+        <v>45675</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="0"/>
-        <v>45672</v>
+        <v>45676</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" si="0"/>
-        <v>45673</v>
+        <v>45677</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>45674</v>
+        <v>45678</v>
       </c>
       <c r="O6" s="20">
         <f>N6+3</f>
-        <v>45677</v>
+        <v>45681</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="0"/>
-        <v>45678</v>
+        <v>45682</v>
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="0"/>
-        <v>45679</v>
+        <v>45683</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="0"/>
-        <v>45681</v>
+        <v>45685</v>
       </c>
       <c r="T6" s="20">
         <f>S6+3</f>
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="U6" s="20">
         <f>T6+4</f>
-        <v>45688</v>
+        <v>45692</v>
       </c>
       <c r="V6" s="20">
         <f>U6+3</f>
-        <v>45691</v>
+        <v>45695</v>
       </c>
       <c r="W6" s="20">
         <f t="shared" si="0"/>
-        <v>45692</v>
+        <v>45696</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" si="0"/>
-        <v>45693</v>
+        <v>45697</v>
       </c>
       <c r="Y6" s="20">
         <f t="shared" si="0"/>
-        <v>45694</v>
+        <v>45698</v>
       </c>
       <c r="Z6" s="20">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45699</v>
       </c>
       <c r="AA6" s="31">
         <f>Z6+3</f>
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="38.25" customHeight="1" thickTop="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E7" s="11">
         <v>45698</v>
       </c>
       <c r="F7" s="23">
         <f>IF(E7="","",E7+1-D7)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
@@ -1870,22 +1901,18 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="2:27" ht="51">
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="2:27" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E8" s="11">
         <v>45698</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" ref="F8:F32" si="1">IF(E8="","",E8+1-D8)</f>
-        <v>33</v>
+        <f t="shared" ref="F8:F37" si="1">IF(E8="","",E8+1-D8)</f>
+        <v>29</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
@@ -1911,22 +1938,22 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="33"/>
     </row>
-    <row r="9" spans="2:27" ht="33.950000000000003">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
+    <row r="9" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E9" s="11">
         <v>45698</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -1952,22 +1979,18 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="33"/>
     </row>
-    <row r="10" spans="2:27" ht="68.099999999999994">
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="10" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E10" s="11">
         <v>45698</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -1993,22 +2016,20 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="33"/>
     </row>
-    <row r="11" spans="2:27" ht="33.950000000000003">
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E11" s="11">
         <v>45698</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="18">
         <v>0</v>
@@ -2034,22 +2055,18 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="33"/>
     </row>
-    <row r="12" spans="2:27" ht="26.1">
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E12" s="11">
         <v>45698</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -2075,22 +2092,20 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="2:27" ht="153">
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E13" s="11">
         <v>45698</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -2116,22 +2131,22 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="33"/>
     </row>
-    <row r="14" spans="2:27" ht="33.950000000000003">
-      <c r="B14" s="8" t="s">
-        <v>25</v>
+    <row r="14" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D14" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E14" s="11">
         <v>45698</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G14" s="18">
         <v>0</v>
@@ -2157,22 +2172,20 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="33"/>
     </row>
-    <row r="15" spans="2:27" ht="36.6">
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="15" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E15" s="11">
         <v>45698</v>
       </c>
       <c r="F15" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" ref="F15:F27" si="2">IF(E15="","",E15+1-D15)</f>
+        <v>29</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -2198,18 +2211,20 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="33"/>
     </row>
-    <row r="16" spans="2:27" ht="31.5" customHeight="1">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E16" s="11">
         <v>45698</v>
       </c>
       <c r="F16" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -2235,20 +2250,20 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="33"/>
     </row>
-    <row r="17" spans="2:27" ht="36.6">
-      <c r="B17" s="6" t="s">
-        <v>28</v>
+    <row r="17" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E17" s="11">
         <v>45698</v>
       </c>
       <c r="F17" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G17" s="18">
         <v>0</v>
@@ -2274,18 +2289,20 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" spans="2:27" ht="33" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
+    <row r="18" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E18" s="11">
         <v>45698</v>
       </c>
       <c r="F18" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -2311,20 +2328,20 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="33"/>
     </row>
-    <row r="19" spans="2:27" ht="36.6">
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10"/>
+    <row r="19" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E19" s="11">
         <v>45698</v>
       </c>
       <c r="F19" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
@@ -2350,18 +2367,20 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="33"/>
     </row>
-    <row r="20" spans="2:27" ht="26.25" customHeight="1">
-      <c r="B20" s="8"/>
+    <row r="20" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E20" s="11">
         <v>45698</v>
       </c>
       <c r="F20" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G20" s="18">
         <v>0</v>
@@ -2387,20 +2406,20 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="33"/>
     </row>
-    <row r="21" spans="2:27" ht="36.6">
-      <c r="B21" s="6" t="s">
-        <v>30</v>
+    <row r="21" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45698</v>
       </c>
       <c r="F21" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
@@ -2426,18 +2445,20 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="33"/>
     </row>
-    <row r="22" spans="2:27" ht="31.5" customHeight="1">
-      <c r="B22" s="7"/>
+    <row r="22" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45698</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G22" s="18">
         <v>0</v>
@@ -2463,20 +2484,22 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="33"/>
     </row>
-    <row r="23" spans="2:27" ht="36.6">
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1"/>
+    <row r="23" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="D23" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45698</v>
       </c>
       <c r="F23" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G23" s="18">
         <v>0</v>
@@ -2502,18 +2525,22 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="33"/>
     </row>
-    <row r="24" spans="2:27" ht="31.5" customHeight="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="2:27" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45698</v>
       </c>
       <c r="F24" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G24" s="18">
         <v>0</v>
@@ -2539,20 +2566,22 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" spans="2:27" ht="36.6">
-      <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="10"/>
+    <row r="25" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45698</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G25" s="18">
         <v>0</v>
@@ -2578,17 +2607,22 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="33"/>
     </row>
-    <row r="26" spans="2:27" ht="31.5" customHeight="1">
-      <c r="B26" s="7"/>
+    <row r="26" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D26" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E26" s="11">
         <v>45698</v>
       </c>
       <c r="F26" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G26" s="18">
         <v>0</v>
@@ -2614,20 +2648,22 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="33"/>
     </row>
-    <row r="27" spans="2:27" ht="36.6">
-      <c r="B27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1"/>
+    <row r="27" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E27" s="11">
         <v>45698</v>
       </c>
       <c r="F27" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="G27" s="18">
         <v>0</v>
@@ -2653,18 +2689,22 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="33"/>
     </row>
-    <row r="28" spans="2:27" ht="31.5" customHeight="1">
-      <c r="B28" s="7"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E28" s="11">
         <v>45698</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" s="18">
         <v>0</v>
@@ -2690,20 +2730,22 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="33"/>
     </row>
-    <row r="29" spans="2:27" ht="36.6">
+    <row r="29" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D29" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E29" s="11">
         <v>45698</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" s="18">
         <v>0</v>
@@ -2729,20 +2771,22 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="33"/>
     </row>
-    <row r="30" spans="2:27" ht="26.1" hidden="1">
-      <c r="B30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="10"/>
+    <row r="30" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D30" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E30" s="11">
         <v>45698</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G30" s="18">
         <v>0</v>
@@ -2768,20 +2812,22 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="33"/>
     </row>
-    <row r="31" spans="2:27" ht="51" hidden="1">
-      <c r="B31" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="10"/>
+    <row r="31" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D31" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E31" s="11">
         <v>45698</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G31" s="18">
         <v>0</v>
@@ -2807,20 +2853,22 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="33"/>
     </row>
-    <row r="32" spans="2:27" ht="26.1" hidden="1">
-      <c r="B32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="10"/>
+    <row r="32" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D32" s="11">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="E32" s="11">
         <v>45698</v>
       </c>
       <c r="F32" s="23">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G32" s="18">
         <v>0</v>
@@ -2846,6 +2894,203 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="33"/>
     </row>
+    <row r="33" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45698</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="33"/>
+    </row>
+    <row r="34" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45698</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="33"/>
+    </row>
+    <row r="35" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E35" s="11">
+        <v>45698</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="33"/>
+    </row>
+    <row r="36" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E36" s="11">
+        <v>45698</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="33"/>
+    </row>
+    <row r="37" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <v>45670</v>
+      </c>
+      <c r="E37" s="11">
+        <v>45698</v>
+      </c>
+      <c r="F37" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H4:AA4"/>
@@ -2858,18 +3103,18 @@
     <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H5:AA32">
+  <conditionalFormatting sqref="H5:AA37">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>H$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AA32">
+  <conditionalFormatting sqref="H7:AA37">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(H$5&gt;=$D7,H$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G32">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="G7:G37">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2898,7 +3143,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:G32</xm:sqref>
+          <xm:sqref>G7:G37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2907,14 +3152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
@@ -2926,10 +3171,10 @@
     <col min="22" max="22" width="27.125" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="1:22" ht="54.75" customHeight="1">
+    <row r="1" spans="1:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -2937,89 +3182,89 @@
       <c r="F2" s="21"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="30.6" thickBot="1">
+    <row r="3" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="17.45" customHeight="1" thickTop="1">
-      <c r="B4" s="66"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="63"/>
       <c r="C4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="T4" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="B5" s="67"/>
+        <v>22</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="64"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -3039,13 +3284,13 @@
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
-      <c r="V5" s="64"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.45" customHeight="1" thickBot="1">
+      <c r="V5" s="67"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="68"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="65"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -3065,79 +3310,79 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="65"/>
-    </row>
-    <row r="7" spans="1:22" ht="26.45" thickTop="1">
+      <c r="V6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="V7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="138">
-      <c r="B8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="25"/>
@@ -3159,12 +3404,12 @@
       <c r="U8" s="25"/>
       <c r="V8" s="36"/>
     </row>
-    <row r="9" spans="1:22" ht="138">
+    <row r="9" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="25"/>
@@ -3186,7 +3431,7 @@
       <c r="U9" s="25"/>
       <c r="V9" s="36"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -3205,76 +3450,76 @@
       <c r="U10" s="12"/>
       <c r="V10" s="37"/>
     </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" ht="17.45" thickBot="1">
+    <row r="11" spans="1:22" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11"/>
       <c r="V11" s="37"/>
     </row>
-    <row r="12" spans="1:22" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1">
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:22" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
       <c r="C12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="U12" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B13" s="67"/>
+        <v>22</v>
+      </c>
+      <c r="V12" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="64"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -3294,10 +3539,10 @@
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
-      <c r="V13" s="64"/>
-    </row>
-    <row r="14" spans="1:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B14" s="68"/>
+      <c r="V13" s="67"/>
+    </row>
+    <row r="14" spans="1:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="65"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -3317,79 +3562,79 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="65"/>
-    </row>
-    <row r="15" spans="1:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+      <c r="V14" s="68"/>
+    </row>
+    <row r="15" spans="1:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="V15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="27" t="s">
+    </row>
+    <row r="16" spans="1:22" s="12" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="12" customFormat="1" ht="373.5" customHeight="1">
-      <c r="B16" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -3411,74 +3656,74 @@
       <c r="U16" s="25"/>
       <c r="V16" s="36"/>
     </row>
-    <row r="17" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
+    <row r="17" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V17" s="37"/>
     </row>
-    <row r="18" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B18" s="66"/>
+    <row r="18" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="63"/>
       <c r="C18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="T18" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="U18" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" s="63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B19" s="67"/>
+        <v>22</v>
+      </c>
+      <c r="V18" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="64"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
@@ -3498,10 +3743,10 @@
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="64"/>
-    </row>
-    <row r="20" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B20" s="68"/>
+      <c r="V19" s="67"/>
+    </row>
+    <row r="20" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="65"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -3521,79 +3766,79 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="65"/>
-    </row>
-    <row r="21" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+      <c r="V20" s="68"/>
+    </row>
+    <row r="21" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="V21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="27" t="s">
+    </row>
+    <row r="22" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1">
-      <c r="B22" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -3615,12 +3860,12 @@
       <c r="U22" s="34"/>
       <c r="V22" s="40"/>
     </row>
-    <row r="23" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1">
+    <row r="23" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="25"/>
@@ -3642,74 +3887,74 @@
       <c r="U23" s="25"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
+    <row r="24" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V24" s="37"/>
     </row>
-    <row r="25" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B25" s="66"/>
+    <row r="25" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
       <c r="C25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="R25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="T25" s="47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="U25" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="V25" s="63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B26" s="67"/>
+        <v>22</v>
+      </c>
+      <c r="V25" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="64"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
@@ -3729,10 +3974,10 @@
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
-      <c r="V26" s="64"/>
-    </row>
-    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B27" s="68"/>
+      <c r="V26" s="67"/>
+    </row>
+    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="65"/>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
@@ -3752,79 +3997,79 @@
       <c r="S27" s="49"/>
       <c r="T27" s="49"/>
       <c r="U27" s="49"/>
-      <c r="V27" s="65"/>
-    </row>
-    <row r="28" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+      <c r="V27" s="68"/>
+    </row>
+    <row r="28" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="V28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="27" t="s">
+    </row>
+    <row r="29" spans="2:22" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="V28" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" s="12" customFormat="1" ht="199.5" customHeight="1">
-      <c r="B29" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>73</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -3846,11 +4091,80 @@
       <c r="U29" s="28"/>
       <c r="V29" s="38"/>
     </row>
-    <row r="30" spans="2:22" ht="16.5" customHeight="1"/>
-    <row r="31" spans="2:22" ht="17.25" customHeight="1"/>
-    <row r="32" spans="2:22" ht="50.1" customHeight="1"/>
+    <row r="30" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F25:F27"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E18:E20"/>
@@ -3867,75 +4181,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서.xlsx
+++ b/9998.팀프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="83">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,15 +231,6 @@
       </rPr>
       <t>(양현석)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">피드백 진행 및 일부분 즉시 반영
-1. 서브, 탑 메뉴 HTML 구조 정비
-2. 서브메뉴 CSS
-3. 탑 메뉴 버튼 CSS
-4. 메인 페이지 배경화면 CSS
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,18 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
-2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
-3. 인트로 페이지의 경우 따로두고 제작
-4. 화면 밝기 조절은 filter: brightness 
-5. 원본에 트랜지션을 주면 양방향이 된다.
-6. 개념 재정립
- margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">익일
 To-do
@@ -325,63 +304,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. 소스 자료 전체 리네이밍 (피그마에 맞춰져 있으므로 메인페이지 제작시 정리하면서 업데이트할 예정)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 글씨체 찾기 (12.08 완료)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 서브메뉴 마무리하고 2가지 스타일 만들어 놓기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. 피드백, To-do 시트 어떻게 관리할지 결정(12.09 폼 작성 완료)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 탑 메뉴 디폴트 스타일 외 2가지 스타일 추가
-6. 장바구니 버튼 클릭시 화면 제작</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">익일
 To-do
 </t>
@@ -404,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 서브메뉴 밑줄 애니메이션 피드백 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서브페이지 - Neptune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,19 +394,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. position: fixed
-2. 스크롤 위치값에 따라 좌,우 위치 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행성 3D 모델링 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. NASA 이미지 발췌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경음악 On/Off 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,15 +411,6 @@
   </si>
   <si>
     <t>Mercury 와 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Default 값은 On
-2. 클릭시 배경음악 On/Off 조절 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 클릭시 해당 페이지 상단으로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,6 +420,44 @@
   <si>
     <t>1. Grid를 이용한 갤러리
 2. 클릭시 클릭한 이미지를 확대해서 볼 수 있는 창 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 1. 행성 반대편에서 타이핑 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Default 값은 On
+2. 클릭시 배경음악 On/Off 조절 
+3. position: fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 해당 페이지 상단으로 이동
+2. position: fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. position: fixed
+2. 스크롤 위치값에 따라 좌,우 위치 이동
+3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. NASA 이미지 발췌
+2. footer 위에 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-07 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-08 (수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +471,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,15 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
@@ -726,12 +655,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -764,21 +693,6 @@
       <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,13 +989,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,9 +1093,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,20 +1102,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1175,7 +1219,7 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1184,113 +1228,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,6 +1290,651 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1676400</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="733425" cy="285750"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1591,11 +2199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,285 +2211,275 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="3.625" customWidth="1"/>
-    <col min="27" max="27" width="3.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="3.625" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
-      </c>
-      <c r="F3" s="22" t="s">
+        <v>45664</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+    <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="H4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="42">
+      <c r="I4" s="31">
         <v>45670</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-    </row>
-    <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="19">
-        <f>H4</f>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+    </row>
+    <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="19">
+        <f>I4</f>
         <v>45670</v>
       </c>
-      <c r="I5" s="19">
-        <f>H5+1</f>
+      <c r="J5" s="19">
+        <f>I5+1</f>
         <v>45671</v>
       </c>
-      <c r="J5" s="19">
-        <f>I5+3</f>
+      <c r="K5" s="19">
+        <f>J5+1</f>
+        <v>45672</v>
+      </c>
+      <c r="L5" s="19">
+        <f>K5+1</f>
+        <v>45673</v>
+      </c>
+      <c r="M5" s="19">
+        <f>L5+1</f>
         <v>45674</v>
       </c>
-      <c r="K5" s="19">
-        <f t="shared" ref="K5:Z6" si="0">J5+1</f>
-        <v>45675</v>
-      </c>
-      <c r="L5" s="19">
-        <f t="shared" si="0"/>
-        <v>45676</v>
-      </c>
-      <c r="M5" s="19">
-        <f t="shared" si="0"/>
+      <c r="N5" s="19">
+        <f>M5+3</f>
         <v>45677</v>
       </c>
-      <c r="N5" s="19">
-        <f t="shared" si="0"/>
+      <c r="O5" s="19">
+        <f>N5+1</f>
         <v>45678</v>
       </c>
-      <c r="O5" s="19">
-        <f>N5+3</f>
+      <c r="P5" s="19">
+        <f>O5+1</f>
+        <v>45679</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>P5+1</f>
+        <v>45680</v>
+      </c>
+      <c r="R5" s="19">
+        <f>Q5+1</f>
         <v>45681</v>
       </c>
-      <c r="P5" s="19">
-        <f t="shared" si="0"/>
-        <v>45682</v>
-      </c>
-      <c r="Q5" s="19">
-        <f t="shared" si="0"/>
-        <v>45683</v>
-      </c>
-      <c r="R5" s="19">
-        <f t="shared" si="0"/>
+      <c r="S5" s="19">
+        <f>R5+3</f>
         <v>45684</v>
       </c>
-      <c r="S5" s="19">
-        <f t="shared" si="0"/>
-        <v>45685</v>
-      </c>
       <c r="T5" s="19">
-        <f>S5+3</f>
+        <f>S5+4</f>
         <v>45688</v>
       </c>
       <c r="U5" s="19">
-        <f>T5+4</f>
+        <f>T5+3</f>
+        <v>45691</v>
+      </c>
+      <c r="V5" s="19">
+        <f>U5+1</f>
         <v>45692</v>
       </c>
-      <c r="V5" s="19">
-        <f>U5+3</f>
-        <v>45695</v>
-      </c>
       <c r="W5" s="19">
-        <f t="shared" si="0"/>
-        <v>45696</v>
+        <f>V5+1</f>
+        <v>45693</v>
       </c>
       <c r="X5" s="19">
-        <f t="shared" si="0"/>
-        <v>45697</v>
+        <f>W5+1</f>
+        <v>45694</v>
       </c>
       <c r="Y5" s="19">
         <f>X5+1</f>
+        <v>45695</v>
+      </c>
+      <c r="Z5" s="61">
+        <f>Y5+3</f>
         <v>45698</v>
       </c>
-      <c r="Z5" s="19">
-        <f t="shared" si="0"/>
-        <v>45699</v>
-      </c>
-      <c r="AA5" s="30">
-        <f>Z5+3</f>
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="20">
-        <f>H5</f>
+    </row>
+    <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="59">
+        <f>I5</f>
         <v>45670</v>
       </c>
-      <c r="I6" s="20">
-        <f>H6+1</f>
+      <c r="J6" s="59">
+        <f>I6+1</f>
         <v>45671</v>
       </c>
-      <c r="J6" s="20">
-        <f>I6+3</f>
+      <c r="K6" s="59">
+        <f>J6+1</f>
+        <v>45672</v>
+      </c>
+      <c r="L6" s="59">
+        <f>K6+1</f>
+        <v>45673</v>
+      </c>
+      <c r="M6" s="59">
+        <f>L6+1</f>
         <v>45674</v>
       </c>
-      <c r="K6" s="20">
-        <f t="shared" si="0"/>
-        <v>45675</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" si="0"/>
-        <v>45676</v>
-      </c>
-      <c r="M6" s="20">
-        <f t="shared" si="0"/>
+      <c r="N6" s="59">
+        <f>M6+3</f>
         <v>45677</v>
       </c>
-      <c r="N6" s="20">
-        <f t="shared" si="0"/>
+      <c r="O6" s="59">
+        <f>N6+1</f>
         <v>45678</v>
       </c>
-      <c r="O6" s="20">
-        <f>N6+3</f>
+      <c r="P6" s="59">
+        <f>O6+1</f>
+        <v>45679</v>
+      </c>
+      <c r="Q6" s="59">
+        <f>P6+1</f>
+        <v>45680</v>
+      </c>
+      <c r="R6" s="59">
+        <f>Q6+1</f>
         <v>45681</v>
       </c>
-      <c r="P6" s="20">
-        <f t="shared" si="0"/>
-        <v>45682</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="0"/>
-        <v>45683</v>
-      </c>
-      <c r="R6" s="20">
-        <f t="shared" si="0"/>
+      <c r="S6" s="59">
+        <f>R6+3</f>
         <v>45684</v>
       </c>
-      <c r="S6" s="20">
-        <f t="shared" si="0"/>
-        <v>45685</v>
-      </c>
-      <c r="T6" s="20">
-        <f>S6+3</f>
+      <c r="T6" s="59">
+        <f>S6+4</f>
         <v>45688</v>
       </c>
-      <c r="U6" s="20">
-        <f>T6+4</f>
+      <c r="U6" s="59">
+        <f>T6+3</f>
+        <v>45691</v>
+      </c>
+      <c r="V6" s="59">
+        <f>U6+1</f>
         <v>45692</v>
       </c>
-      <c r="V6" s="20">
-        <f>U6+3</f>
+      <c r="W6" s="59">
+        <f>V6+1</f>
+        <v>45693</v>
+      </c>
+      <c r="X6" s="59">
+        <f>W6+1</f>
+        <v>45694</v>
+      </c>
+      <c r="Y6" s="59">
+        <f>X6+1</f>
         <v>45695</v>
       </c>
-      <c r="W6" s="20">
-        <f t="shared" si="0"/>
-        <v>45696</v>
-      </c>
-      <c r="X6" s="20">
-        <f t="shared" si="0"/>
-        <v>45697</v>
-      </c>
-      <c r="Y6" s="20">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="62">
+        <f>Y6+3</f>
         <v>45698</v>
       </c>
-      <c r="Z6" s="20">
-        <f t="shared" si="0"/>
-        <v>45699</v>
-      </c>
-      <c r="AA6" s="31">
-        <f>Z6+3</f>
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:26" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="11">
+      <c r="D7" s="58"/>
+      <c r="E7" s="11">
         <v>45670</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="F7" s="23">
-        <f>IF(E7="","",E7+1-D7)</f>
+      <c r="G7" s="22">
+        <f>IF(F7="","",F7+1-E7)</f>
         <v>29</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1898,26 +2496,25 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="32"/>
-    </row>
-    <row r="8" spans="2:27" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="Z7" s="63"/>
+    </row>
+    <row r="8" spans="2:26" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11">
+      <c r="D8" s="18"/>
+      <c r="E8" s="11">
         <v>45670</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="F8" s="23">
-        <f t="shared" ref="F8:F37" si="1">IF(E8="","",E8+1-D8)</f>
+      <c r="G8" s="22">
+        <f t="shared" ref="G8:G37" si="0">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H8" s="18">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1935,30 +2532,29 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="58"/>
+      <c r="E9" s="11">
         <v>45670</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="F9" s="23">
-        <f t="shared" si="1"/>
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1976,26 +2572,25 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="33"/>
-    </row>
-    <row r="10" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="11">
+      <c r="D10" s="18"/>
+      <c r="E10" s="11">
         <v>45670</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="F10" s="23">
-        <f t="shared" si="1"/>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2013,28 +2608,27 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="11" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z10" s="64"/>
+    </row>
+    <row r="11" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="11">
+      <c r="D11" s="58"/>
+      <c r="E11" s="11">
         <v>45670</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="F11" s="23">
-        <f t="shared" si="1"/>
+      <c r="G11" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2052,26 +2646,25 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="33"/>
-    </row>
-    <row r="12" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="64"/>
+    </row>
+    <row r="12" spans="2:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="D12" s="18"/>
+      <c r="E12" s="11">
         <v>45670</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="F12" s="23">
-        <f t="shared" si="1"/>
+      <c r="G12" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G12" s="18">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2089,28 +2682,27 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="33"/>
-    </row>
-    <row r="13" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z12" s="64"/>
+    </row>
+    <row r="13" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="D13" s="58"/>
+      <c r="E13" s="11">
         <v>45670</v>
       </c>
-      <c r="E13" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2128,30 +2720,29 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="33"/>
-    </row>
-    <row r="14" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
-        <v>62</v>
+      <c r="Z13" s="64"/>
+    </row>
+    <row r="14" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="11">
+        <v>78</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11">
         <v>45670</v>
       </c>
-      <c r="E14" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="18">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2169,28 +2760,29 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="33"/>
-    </row>
-    <row r="15" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="11">
+      <c r="Z14" s="64"/>
+    </row>
+    <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11">
         <v>45670</v>
       </c>
-      <c r="E15" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" ref="F15:F27" si="2">IF(E15="","",E15+1-D15)</f>
-        <v>29</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="F15" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" ref="G15:G27" si="1">IF(F15="","",F15+1-E15)</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2208,28 +2800,27 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="33"/>
-    </row>
-    <row r="16" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="64"/>
+    </row>
+    <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="11">
+      <c r="D16" s="18"/>
+      <c r="E16" s="11">
         <v>45670</v>
       </c>
-      <c r="E16" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F16" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="F16" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2247,28 +2838,27 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="33"/>
-    </row>
-    <row r="17" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="64"/>
+    </row>
+    <row r="17" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="11">
+      <c r="D17" s="18"/>
+      <c r="E17" s="11">
         <v>45670</v>
       </c>
-      <c r="E17" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="F17" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2286,28 +2876,27 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="33"/>
-    </row>
-    <row r="18" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="64"/>
+    </row>
+    <row r="18" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="11">
+      <c r="D18" s="18"/>
+      <c r="E18" s="11">
         <v>45670</v>
       </c>
-      <c r="E18" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="F18" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="18">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2325,28 +2914,27 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="33"/>
-    </row>
-    <row r="19" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="64"/>
+    </row>
+    <row r="19" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="11">
+      <c r="D19" s="18"/>
+      <c r="E19" s="11">
         <v>45670</v>
       </c>
-      <c r="E19" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="F19" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="18">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2364,28 +2952,27 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="33"/>
-    </row>
-    <row r="20" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="64"/>
+    </row>
+    <row r="20" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="11">
+      <c r="D20" s="18"/>
+      <c r="E20" s="11">
         <v>45670</v>
       </c>
-      <c r="E20" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F20" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="F20" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="18">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2403,28 +2990,27 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="33"/>
-    </row>
-    <row r="21" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="64"/>
+    </row>
+    <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="11">
+      <c r="D21" s="18"/>
+      <c r="E21" s="11">
         <v>45670</v>
       </c>
-      <c r="E21" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F21" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H21" s="18">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2442,28 +3028,27 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="33"/>
-    </row>
-    <row r="22" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="64"/>
+    </row>
+    <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="11">
+      <c r="D22" s="18"/>
+      <c r="E22" s="11">
         <v>45670</v>
       </c>
-      <c r="E22" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="F22" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="18">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2481,30 +3066,29 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="33"/>
-    </row>
-    <row r="23" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="69" t="s">
-        <v>71</v>
+      <c r="Z22" s="64"/>
+    </row>
+    <row r="23" spans="2:26" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="11">
+        <v>74</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="11">
         <v>45670</v>
       </c>
-      <c r="E23" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="F23" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="18">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2522,30 +3106,29 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="33"/>
-    </row>
-    <row r="24" spans="2:27" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="Z23" s="64"/>
+    </row>
+    <row r="24" spans="2:26" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11">
         <v>45670</v>
       </c>
-      <c r="E24" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="F24" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H24" s="18">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2563,30 +3146,29 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="33"/>
-    </row>
-    <row r="25" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="69" t="s">
-        <v>75</v>
+      <c r="Z24" s="64"/>
+    </row>
+    <row r="25" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="11">
+        <v>76</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11">
         <v>45670</v>
       </c>
-      <c r="E25" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2604,30 +3186,29 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="33"/>
-    </row>
-    <row r="26" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="Z25" s="64"/>
+    </row>
+    <row r="26" spans="2:26" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11">
         <v>45670</v>
       </c>
-      <c r="E26" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="F26" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="18">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2645,30 +3226,29 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="33"/>
-    </row>
-    <row r="27" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69" t="s">
-        <v>77</v>
+      <c r="Z26" s="64"/>
+    </row>
+    <row r="27" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="11">
+        <v>73</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11">
         <v>45670</v>
       </c>
-      <c r="E27" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="F27" s="11">
+        <v>45674</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="18">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2686,30 +3266,29 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="33"/>
-    </row>
-    <row r="28" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z27" s="64"/>
+    </row>
+    <row r="28" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D28" s="58"/>
       <c r="E28" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F28" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G28" s="18">
+        <v>45677</v>
+      </c>
+      <c r="F28" s="11">
+        <v>45678</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="18">
         <v>0</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2727,30 +3306,29 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="33"/>
-    </row>
-    <row r="29" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z28" s="64"/>
+    </row>
+    <row r="29" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D29" s="58"/>
       <c r="E29" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G29" s="18">
+        <v>45677</v>
+      </c>
+      <c r="F29" s="11">
+        <v>45678</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="18">
         <v>0</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2768,30 +3346,29 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="33"/>
-    </row>
-    <row r="30" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z29" s="64"/>
+    </row>
+    <row r="30" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D30" s="58"/>
       <c r="E30" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G30" s="18">
+        <v>45678</v>
+      </c>
+      <c r="F30" s="11">
+        <v>45679</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2809,30 +3386,29 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="33"/>
-    </row>
-    <row r="31" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z30" s="64"/>
+    </row>
+    <row r="31" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D31" s="58"/>
       <c r="E31" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F31" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G31" s="18">
+        <v>45679</v>
+      </c>
+      <c r="F31" s="11">
+        <v>45680</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="18">
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2850,30 +3426,29 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="33"/>
-    </row>
-    <row r="32" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z31" s="64"/>
+    </row>
+    <row r="32" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F32" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G32" s="18">
+        <v>45680</v>
+      </c>
+      <c r="F32" s="11">
+        <v>45681</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2891,30 +3466,29 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="33"/>
-    </row>
-    <row r="33" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="64"/>
+    </row>
+    <row r="33" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="11">
-        <v>45670</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D33" s="58"/>
       <c r="E33" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G33" s="18">
+        <v>45681</v>
+      </c>
+      <c r="F33" s="11">
+        <v>45684</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="18">
         <v>0</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2932,28 +3506,27 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="33"/>
-    </row>
-    <row r="34" spans="2:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="Z33" s="64"/>
+    </row>
+    <row r="34" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="11">
-        <v>45670</v>
-      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="11">
-        <v>45698</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G34" s="18">
+        <v>45688</v>
+      </c>
+      <c r="F34" s="11">
+        <v>45694</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2971,28 +3544,27 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="33"/>
-    </row>
-    <row r="35" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="64"/>
+    </row>
+    <row r="35" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="11">
+      <c r="D35" s="18"/>
+      <c r="E35" s="11">
         <v>45670</v>
       </c>
-      <c r="E35" s="11">
+      <c r="F35" s="11">
         <v>45698</v>
       </c>
-      <c r="F35" s="23">
-        <f t="shared" si="1"/>
+      <c r="G35" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G35" s="18">
+      <c r="H35" s="18">
         <v>0</v>
       </c>
-      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3010,28 +3582,27 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="33"/>
-    </row>
-    <row r="36" spans="2:27" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z35" s="64"/>
+    </row>
+    <row r="36" spans="2:26" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="11">
+      <c r="D36" s="18"/>
+      <c r="E36" s="11">
         <v>45670</v>
       </c>
-      <c r="E36" s="11">
+      <c r="F36" s="11">
         <v>45698</v>
       </c>
-      <c r="F36" s="23">
-        <f t="shared" si="1"/>
+      <c r="G36" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G36" s="18">
+      <c r="H36" s="18">
         <v>0</v>
       </c>
-      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3049,28 +3620,27 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="33"/>
-    </row>
-    <row r="37" spans="2:27" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z36" s="64"/>
+    </row>
+    <row r="37" spans="2:26" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="11">
+      <c r="D37" s="18"/>
+      <c r="E37" s="11">
         <v>45670</v>
       </c>
-      <c r="E37" s="11">
+      <c r="F37" s="11">
         <v>45698</v>
       </c>
-      <c r="F37" s="23">
-        <f t="shared" si="1"/>
+      <c r="G37" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G37" s="18">
+      <c r="H37" s="18">
         <v>0</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3088,33 +3658,33 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="33"/>
+      <c r="Z37" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H4:AA4"/>
-    <mergeCell ref="F4:F6"/>
+  <mergeCells count="9">
+    <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H5:AA37">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>H$5=$E$3</formula>
+  <conditionalFormatting sqref="I5:Z37">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>I$5=$F$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AA37">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(H$5&gt;=$D7,H$5&lt;=$E7)</formula>
+  <conditionalFormatting sqref="I7:Z37">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(I$5&gt;=$E7,I$5&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G37">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="H7:H37">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3127,8 +3697,253 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D37">
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A1360671-EAB7-496F-A6C6-7156D32B39EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N5:N6 T5:T6" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId5" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId6" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId7" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId8" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId9" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId10" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId11" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId12" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId13" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1676400</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3143,7 +3958,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:G37</xm:sqref>
+          <xm:sqref>H7:H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A1360671-EAB7-496F-A6C6-7156D32B39EE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3153,287 +3981,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="63.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="63.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="63.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.125" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="14" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
-      </c>
-      <c r="F3" s="22" t="s">
+        <v>45664</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="X3" s="65" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="67"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="52"/>
+      <c r="C4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="67"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="68"/>
-    </row>
-    <row r="7" spans="1:22" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="68"/>
+    </row>
+    <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="K7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="P7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="Q7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="R7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="S7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="T7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="U7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="V7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="W7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="X7" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:24" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="70"/>
+    </row>
+    <row r="9" spans="1:24" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="36"/>
-    </row>
-    <row r="9" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="36"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="70"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3448,654 +4295,781 @@
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="37"/>
-    </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="71"/>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
-      <c r="C11"/>
-      <c r="V11" s="37"/>
-    </row>
-    <row r="12" spans="1:22" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="67"/>
-    </row>
-    <row r="14" spans="1:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="68"/>
-    </row>
-    <row r="15" spans="1:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="E11"/>
+      <c r="X11" s="71"/>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="52"/>
+      <c r="C12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="53"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="67"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="54"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="68"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="K15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="L15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="N15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="O15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="P15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="Q15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="R15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="S15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="T15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="U15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="V15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="W15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="35" t="s">
+      <c r="X15" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="12" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:24" s="12" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="70"/>
+    </row>
+    <row r="17" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X17" s="71"/>
+    </row>
+    <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="52"/>
+      <c r="C18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="67"/>
+    </row>
+    <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="54"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="68"/>
+    </row>
+    <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="36"/>
-    </row>
-    <row r="17" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V17" s="37"/>
-    </row>
-    <row r="18" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="67"/>
-    </row>
-    <row r="20" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="65"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="68"/>
-    </row>
-    <row r="21" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="70"/>
+    </row>
+    <row r="24" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X24" s="71"/>
+    </row>
+    <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="52"/>
+      <c r="C25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="67"/>
+    </row>
+    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="68"/>
+    </row>
+    <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="K28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="L28" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="M28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="N28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="O28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="P28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="Q28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="R28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="S28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="27" t="s">
+      <c r="T28" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="U28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="V28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="27" t="s">
+      <c r="W28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="35" t="s">
+      <c r="X28" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+    <row r="29" spans="2:24" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="40"/>
-    </row>
-    <row r="23" spans="2:22" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="36"/>
-    </row>
-    <row r="24" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V24" s="37"/>
-    </row>
-    <row r="25" spans="2:22" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="67"/>
-    </row>
-    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="65"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="68"/>
-    </row>
-    <row r="28" spans="2:22" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="V28" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="38"/>
-    </row>
-    <row r="30" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="73"/>
+    </row>
+    <row r="30" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="93">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
     <mergeCell ref="U4:U6"/>
     <mergeCell ref="U12:U14"/>
     <mergeCell ref="U18:U20"/>
@@ -4104,83 +5078,14 @@
     <mergeCell ref="V12:V14"/>
     <mergeCell ref="V18:V20"/>
     <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
